--- a/eduAv Prototype Interview Results.xlsx
+++ b/eduAv Prototype Interview Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Uni Work\2021 - 5th year uni\Sem 2\DECO3500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766FCF06-80D2-46A2-BA89-97E8564FD0E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6D735D-7BA4-4F69-BE75-F672DF83DF54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8A94DBD7-0ED3-4EC8-A6F2-3CC6EF260AF4}"/>
   </bookViews>
@@ -154,11 +154,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>eduAv:</a:t>
+              <a:t>eduAv</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> Social presence facilitated by </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -633,7 +633,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Eduav</a:t>
+              <a:t>Eduav Social presence</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2594,7 +2594,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
